--- a/gasmarketmodel/data/params/template.xlsx
+++ b/gasmarketmodel/data/params/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\flo\code\freichel\gasmarketmodel\gasmarketmodel\data\params\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A728165F-14CB-46F6-A256-78CA5FCA0122}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF18F807-503E-4A2B-9C81-B2D44D644073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="68">
   <si>
     <t>Select Region:</t>
   </si>
@@ -441,7 +441,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -491,6 +491,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -15657,7 +15660,7 @@
   </sheetPr>
   <dimension ref="A1:X116"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -18928,7 +18931,7 @@
   </sheetPr>
   <dimension ref="A1:V104"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -24092,7 +24095,7 @@
   <sheetPr>
     <tabColor theme="0"/>
   </sheetPr>
-  <dimension ref="A1:U354"/>
+  <dimension ref="A1:U389"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -40281,6 +40284,1952 @@
       <c r="T354" s="18" t="e">
         <f t="shared" si="130"/>
         <v>#N/A</v>
+      </c>
+    </row>
+    <row r="363" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A363" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B363" s="16">
+        <f>IF(AND(Demand!$A6&lt;&gt;"Total",$B83&lt;&gt;""),Demand!$A6,"")</f>
+        <v>0</v>
+      </c>
+      <c r="C363" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D363" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B363,Price!$A$6:$A$104,0),MATCH(D$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E363" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B363,Price!$A$6:$A$104,0),MATCH(E$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F363" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B363,Price!$A$6:$A$104,0),MATCH(F$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G363" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B363,Price!$A$6:$A$104,0),MATCH(G$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H363" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B363,Price!$A$6:$A$104,0),MATCH(H$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I363" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B363,Price!$A$6:$A$104,0),MATCH(I$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J363" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B363,Price!$A$6:$A$104,0),MATCH(J$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K363" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B363,Price!$A$6:$A$104,0),MATCH(K$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L363" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B363,Price!$A$6:$A$104,0),MATCH(L$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="M363" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B363,Price!$A$6:$A$104,0),MATCH(M$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="N363" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B363,Price!$A$6:$A$104,0),MATCH(N$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O363" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B363,Price!$A$6:$A$104,0),MATCH(O$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="P363" s="18"/>
+      <c r="Q363" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B363,Price!$A$6:$A$104,0),MATCH(Q$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R363" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B363,Price!$A$6:$A$104,0),MATCH(R$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S363" s="18"/>
+      <c r="T363" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B363,Price!$A$6:$A$104,0),MATCH(T$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A364" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B364" s="16">
+        <f>IF(AND(Demand!$A7&lt;&gt;"Total",$B84&lt;&gt;""),Demand!$A7,"")</f>
+        <v>0</v>
+      </c>
+      <c r="C364" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D364" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B364,Price!$A$6:$A$104,0),MATCH(D$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E364" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B364,Price!$A$6:$A$104,0),MATCH(E$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F364" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B364,Price!$A$6:$A$104,0),MATCH(F$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G364" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B364,Price!$A$6:$A$104,0),MATCH(G$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H364" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B364,Price!$A$6:$A$104,0),MATCH(H$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I364" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B364,Price!$A$6:$A$104,0),MATCH(I$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J364" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B364,Price!$A$6:$A$104,0),MATCH(J$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K364" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B364,Price!$A$6:$A$104,0),MATCH(K$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L364" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B364,Price!$A$6:$A$104,0),MATCH(L$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="M364" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B364,Price!$A$6:$A$104,0),MATCH(M$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="N364" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B364,Price!$A$6:$A$104,0),MATCH(N$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O364" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B364,Price!$A$6:$A$104,0),MATCH(O$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Q364" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B364,Price!$A$6:$A$104,0),MATCH(Q$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R364" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B364,Price!$A$6:$A$104,0),MATCH(R$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="T364" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B364,Price!$A$6:$A$104,0),MATCH(T$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A365" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B365" s="16">
+        <f>IF(AND(Demand!$A8&lt;&gt;"Total",$B85&lt;&gt;""),Demand!$A8,"")</f>
+        <v>0</v>
+      </c>
+      <c r="C365" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D365" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B365,Price!$A$6:$A$104,0),MATCH(D$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E365" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B365,Price!$A$6:$A$104,0),MATCH(E$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F365" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B365,Price!$A$6:$A$104,0),MATCH(F$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G365" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B365,Price!$A$6:$A$104,0),MATCH(G$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H365" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B365,Price!$A$6:$A$104,0),MATCH(H$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I365" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B365,Price!$A$6:$A$104,0),MATCH(I$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J365" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B365,Price!$A$6:$A$104,0),MATCH(J$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K365" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B365,Price!$A$6:$A$104,0),MATCH(K$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L365" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B365,Price!$A$6:$A$104,0),MATCH(L$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="M365" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B365,Price!$A$6:$A$104,0),MATCH(M$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="N365" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B365,Price!$A$6:$A$104,0),MATCH(N$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O365" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B365,Price!$A$6:$A$104,0),MATCH(O$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Q365" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B365,Price!$A$6:$A$104,0),MATCH(Q$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R365" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B365,Price!$A$6:$A$104,0),MATCH(R$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="T365" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B365,Price!$A$6:$A$104,0),MATCH(T$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A366" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B366" s="16">
+        <f>IF(AND(Demand!$A9&lt;&gt;"Total",$B86&lt;&gt;""),Demand!$A9,"")</f>
+        <v>0</v>
+      </c>
+      <c r="C366" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D366" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B366,Price!$A$6:$A$104,0),MATCH(D$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E366" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B366,Price!$A$6:$A$104,0),MATCH(E$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F366" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B366,Price!$A$6:$A$104,0),MATCH(F$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G366" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B366,Price!$A$6:$A$104,0),MATCH(G$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H366" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B366,Price!$A$6:$A$104,0),MATCH(H$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I366" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B366,Price!$A$6:$A$104,0),MATCH(I$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J366" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B366,Price!$A$6:$A$104,0),MATCH(J$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K366" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B366,Price!$A$6:$A$104,0),MATCH(K$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L366" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B366,Price!$A$6:$A$104,0),MATCH(L$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="M366" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B366,Price!$A$6:$A$104,0),MATCH(M$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="N366" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B366,Price!$A$6:$A$104,0),MATCH(N$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O366" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B366,Price!$A$6:$A$104,0),MATCH(O$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Q366" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B366,Price!$A$6:$A$104,0),MATCH(Q$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R366" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B366,Price!$A$6:$A$104,0),MATCH(R$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="T366" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B366,Price!$A$6:$A$104,0),MATCH(T$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A367" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B367" s="16">
+        <f>IF(AND(Demand!$A10&lt;&gt;"Total",$B87&lt;&gt;""),Demand!$A10,"")</f>
+        <v>0</v>
+      </c>
+      <c r="C367" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D367" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B367,Price!$A$6:$A$104,0),MATCH(D$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E367" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B367,Price!$A$6:$A$104,0),MATCH(E$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F367" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B367,Price!$A$6:$A$104,0),MATCH(F$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G367" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B367,Price!$A$6:$A$104,0),MATCH(G$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H367" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B367,Price!$A$6:$A$104,0),MATCH(H$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I367" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B367,Price!$A$6:$A$104,0),MATCH(I$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J367" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B367,Price!$A$6:$A$104,0),MATCH(J$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K367" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B367,Price!$A$6:$A$104,0),MATCH(K$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L367" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B367,Price!$A$6:$A$104,0),MATCH(L$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="M367" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B367,Price!$A$6:$A$104,0),MATCH(M$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="N367" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B367,Price!$A$6:$A$104,0),MATCH(N$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O367" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B367,Price!$A$6:$A$104,0),MATCH(O$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Q367" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B367,Price!$A$6:$A$104,0),MATCH(Q$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R367" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B367,Price!$A$6:$A$104,0),MATCH(R$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="T367" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B367,Price!$A$6:$A$104,0),MATCH(T$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A368" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B368" s="16">
+        <f>IF(AND(Demand!$A11&lt;&gt;"Total",$B88&lt;&gt;""),Demand!$A11,"")</f>
+        <v>0</v>
+      </c>
+      <c r="C368" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D368" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B368,Price!$A$6:$A$104,0),MATCH(D$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E368" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B368,Price!$A$6:$A$104,0),MATCH(E$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F368" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B368,Price!$A$6:$A$104,0),MATCH(F$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G368" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B368,Price!$A$6:$A$104,0),MATCH(G$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H368" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B368,Price!$A$6:$A$104,0),MATCH(H$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I368" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B368,Price!$A$6:$A$104,0),MATCH(I$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J368" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B368,Price!$A$6:$A$104,0),MATCH(J$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K368" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B368,Price!$A$6:$A$104,0),MATCH(K$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L368" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B368,Price!$A$6:$A$104,0),MATCH(L$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="M368" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B368,Price!$A$6:$A$104,0),MATCH(M$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="N368" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B368,Price!$A$6:$A$104,0),MATCH(N$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O368" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B368,Price!$A$6:$A$104,0),MATCH(O$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Q368" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B368,Price!$A$6:$A$104,0),MATCH(Q$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R368" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B368,Price!$A$6:$A$104,0),MATCH(R$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="T368" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B368,Price!$A$6:$A$104,0),MATCH(T$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A369" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B369" s="16">
+        <f>IF(AND(Demand!$A12&lt;&gt;"Total",$B89&lt;&gt;""),Demand!$A12,"")</f>
+        <v>0</v>
+      </c>
+      <c r="C369" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D369" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B369,Price!$A$6:$A$104,0),MATCH(D$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E369" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B369,Price!$A$6:$A$104,0),MATCH(E$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F369" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B369,Price!$A$6:$A$104,0),MATCH(F$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G369" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B369,Price!$A$6:$A$104,0),MATCH(G$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H369" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B369,Price!$A$6:$A$104,0),MATCH(H$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I369" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B369,Price!$A$6:$A$104,0),MATCH(I$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J369" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B369,Price!$A$6:$A$104,0),MATCH(J$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K369" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B369,Price!$A$6:$A$104,0),MATCH(K$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L369" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B369,Price!$A$6:$A$104,0),MATCH(L$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="M369" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B369,Price!$A$6:$A$104,0),MATCH(M$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="N369" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B369,Price!$A$6:$A$104,0),MATCH(N$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O369" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B369,Price!$A$6:$A$104,0),MATCH(O$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Q369" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B369,Price!$A$6:$A$104,0),MATCH(Q$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R369" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B369,Price!$A$6:$A$104,0),MATCH(R$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="T369" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B369,Price!$A$6:$A$104,0),MATCH(T$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A370" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B370" s="16">
+        <f>IF(AND(Demand!$A13&lt;&gt;"Total",$B90&lt;&gt;""),Demand!$A13,"")</f>
+        <v>0</v>
+      </c>
+      <c r="C370" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D370" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B370,Price!$A$6:$A$104,0),MATCH(D$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E370" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B370,Price!$A$6:$A$104,0),MATCH(E$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F370" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B370,Price!$A$6:$A$104,0),MATCH(F$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G370" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B370,Price!$A$6:$A$104,0),MATCH(G$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H370" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B370,Price!$A$6:$A$104,0),MATCH(H$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I370" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B370,Price!$A$6:$A$104,0),MATCH(I$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J370" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B370,Price!$A$6:$A$104,0),MATCH(J$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K370" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B370,Price!$A$6:$A$104,0),MATCH(K$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L370" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B370,Price!$A$6:$A$104,0),MATCH(L$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="M370" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B370,Price!$A$6:$A$104,0),MATCH(M$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="N370" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B370,Price!$A$6:$A$104,0),MATCH(N$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O370" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B370,Price!$A$6:$A$104,0),MATCH(O$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Q370" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B370,Price!$A$6:$A$104,0),MATCH(Q$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R370" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B370,Price!$A$6:$A$104,0),MATCH(R$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="T370" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B370,Price!$A$6:$A$104,0),MATCH(T$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A371" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B371" s="16">
+        <f>IF(AND(Demand!$A14&lt;&gt;"Total",$B91&lt;&gt;""),Demand!$A14,"")</f>
+        <v>0</v>
+      </c>
+      <c r="C371" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D371" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B371,Price!$A$6:$A$104,0),MATCH(D$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E371" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B371,Price!$A$6:$A$104,0),MATCH(E$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F371" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B371,Price!$A$6:$A$104,0),MATCH(F$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G371" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B371,Price!$A$6:$A$104,0),MATCH(G$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H371" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B371,Price!$A$6:$A$104,0),MATCH(H$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I371" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B371,Price!$A$6:$A$104,0),MATCH(I$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J371" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B371,Price!$A$6:$A$104,0),MATCH(J$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K371" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B371,Price!$A$6:$A$104,0),MATCH(K$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L371" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B371,Price!$A$6:$A$104,0),MATCH(L$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="M371" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B371,Price!$A$6:$A$104,0),MATCH(M$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="N371" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B371,Price!$A$6:$A$104,0),MATCH(N$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O371" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B371,Price!$A$6:$A$104,0),MATCH(O$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Q371" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B371,Price!$A$6:$A$104,0),MATCH(Q$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R371" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B371,Price!$A$6:$A$104,0),MATCH(R$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="T371" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B371,Price!$A$6:$A$104,0),MATCH(T$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A372" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B372" s="16">
+        <f>IF(AND(Demand!$A15&lt;&gt;"Total",$B92&lt;&gt;""),Demand!$A15,"")</f>
+        <v>0</v>
+      </c>
+      <c r="C372" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D372" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B372,Price!$A$6:$A$104,0),MATCH(D$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E372" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B372,Price!$A$6:$A$104,0),MATCH(E$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F372" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B372,Price!$A$6:$A$104,0),MATCH(F$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G372" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B372,Price!$A$6:$A$104,0),MATCH(G$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H372" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B372,Price!$A$6:$A$104,0),MATCH(H$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I372" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B372,Price!$A$6:$A$104,0),MATCH(I$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J372" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B372,Price!$A$6:$A$104,0),MATCH(J$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K372" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B372,Price!$A$6:$A$104,0),MATCH(K$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L372" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B372,Price!$A$6:$A$104,0),MATCH(L$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="M372" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B372,Price!$A$6:$A$104,0),MATCH(M$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="N372" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B372,Price!$A$6:$A$104,0),MATCH(N$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O372" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B372,Price!$A$6:$A$104,0),MATCH(O$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Q372" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B372,Price!$A$6:$A$104,0),MATCH(Q$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R372" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B372,Price!$A$6:$A$104,0),MATCH(R$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="T372" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B372,Price!$A$6:$A$104,0),MATCH(T$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A373" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B373" s="16">
+        <f>IF(AND(Demand!$A16&lt;&gt;"Total",$B93&lt;&gt;""),Demand!$A16,"")</f>
+        <v>0</v>
+      </c>
+      <c r="C373" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D373" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B373,Price!$A$6:$A$104,0),MATCH(D$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E373" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B373,Price!$A$6:$A$104,0),MATCH(E$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F373" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B373,Price!$A$6:$A$104,0),MATCH(F$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G373" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B373,Price!$A$6:$A$104,0),MATCH(G$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H373" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B373,Price!$A$6:$A$104,0),MATCH(H$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I373" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B373,Price!$A$6:$A$104,0),MATCH(I$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J373" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B373,Price!$A$6:$A$104,0),MATCH(J$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K373" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B373,Price!$A$6:$A$104,0),MATCH(K$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L373" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B373,Price!$A$6:$A$104,0),MATCH(L$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="M373" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B373,Price!$A$6:$A$104,0),MATCH(M$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="N373" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B373,Price!$A$6:$A$104,0),MATCH(N$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O373" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B373,Price!$A$6:$A$104,0),MATCH(O$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Q373" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B373,Price!$A$6:$A$104,0),MATCH(Q$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R373" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B373,Price!$A$6:$A$104,0),MATCH(R$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="T373" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B373,Price!$A$6:$A$104,0),MATCH(T$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A374" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B374" s="16">
+        <f>IF(AND(Demand!$A17&lt;&gt;"Total",$B94&lt;&gt;""),Demand!$A17,"")</f>
+        <v>0</v>
+      </c>
+      <c r="C374" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D374" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B374,Price!$A$6:$A$104,0),MATCH(D$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E374" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B374,Price!$A$6:$A$104,0),MATCH(E$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F374" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B374,Price!$A$6:$A$104,0),MATCH(F$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G374" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B374,Price!$A$6:$A$104,0),MATCH(G$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H374" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B374,Price!$A$6:$A$104,0),MATCH(H$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I374" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B374,Price!$A$6:$A$104,0),MATCH(I$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J374" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B374,Price!$A$6:$A$104,0),MATCH(J$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K374" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B374,Price!$A$6:$A$104,0),MATCH(K$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L374" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B374,Price!$A$6:$A$104,0),MATCH(L$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="M374" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B374,Price!$A$6:$A$104,0),MATCH(M$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="N374" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B374,Price!$A$6:$A$104,0),MATCH(N$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O374" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B374,Price!$A$6:$A$104,0),MATCH(O$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Q374" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B374,Price!$A$6:$A$104,0),MATCH(Q$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R374" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B374,Price!$A$6:$A$104,0),MATCH(R$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="T374" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B374,Price!$A$6:$A$104,0),MATCH(T$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A375" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B375" s="16">
+        <f>IF(AND(Demand!$A18&lt;&gt;"Total",$B95&lt;&gt;""),Demand!$A18,"")</f>
+        <v>0</v>
+      </c>
+      <c r="C375" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D375" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B375,Price!$A$6:$A$104,0),MATCH(D$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E375" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B375,Price!$A$6:$A$104,0),MATCH(E$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F375" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B375,Price!$A$6:$A$104,0),MATCH(F$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G375" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B375,Price!$A$6:$A$104,0),MATCH(G$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H375" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B375,Price!$A$6:$A$104,0),MATCH(H$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I375" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B375,Price!$A$6:$A$104,0),MATCH(I$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J375" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B375,Price!$A$6:$A$104,0),MATCH(J$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K375" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B375,Price!$A$6:$A$104,0),MATCH(K$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L375" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B375,Price!$A$6:$A$104,0),MATCH(L$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="M375" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B375,Price!$A$6:$A$104,0),MATCH(M$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="N375" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B375,Price!$A$6:$A$104,0),MATCH(N$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O375" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B375,Price!$A$6:$A$104,0),MATCH(O$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Q375" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B375,Price!$A$6:$A$104,0),MATCH(Q$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R375" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B375,Price!$A$6:$A$104,0),MATCH(R$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="T375" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B375,Price!$A$6:$A$104,0),MATCH(T$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A376" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B376" s="16">
+        <f>IF(AND(Demand!$A19&lt;&gt;"Total",$B96&lt;&gt;""),Demand!$A19,"")</f>
+        <v>0</v>
+      </c>
+      <c r="C376" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D376" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B376,Price!$A$6:$A$104,0),MATCH(D$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E376" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B376,Price!$A$6:$A$104,0),MATCH(E$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F376" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B376,Price!$A$6:$A$104,0),MATCH(F$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G376" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B376,Price!$A$6:$A$104,0),MATCH(G$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H376" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B376,Price!$A$6:$A$104,0),MATCH(H$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I376" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B376,Price!$A$6:$A$104,0),MATCH(I$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J376" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B376,Price!$A$6:$A$104,0),MATCH(J$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K376" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B376,Price!$A$6:$A$104,0),MATCH(K$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L376" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B376,Price!$A$6:$A$104,0),MATCH(L$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="M376" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B376,Price!$A$6:$A$104,0),MATCH(M$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="N376" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B376,Price!$A$6:$A$104,0),MATCH(N$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O376" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B376,Price!$A$6:$A$104,0),MATCH(O$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Q376" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B376,Price!$A$6:$A$104,0),MATCH(Q$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R376" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B376,Price!$A$6:$A$104,0),MATCH(R$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="T376" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B376,Price!$A$6:$A$104,0),MATCH(T$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A377" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B377" s="16">
+        <f>IF(AND(Demand!$A20&lt;&gt;"Total",$B97&lt;&gt;""),Demand!$A20,"")</f>
+        <v>0</v>
+      </c>
+      <c r="C377" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D377" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B377,Price!$A$6:$A$104,0),MATCH(D$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E377" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B377,Price!$A$6:$A$104,0),MATCH(E$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F377" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B377,Price!$A$6:$A$104,0),MATCH(F$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G377" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B377,Price!$A$6:$A$104,0),MATCH(G$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H377" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B377,Price!$A$6:$A$104,0),MATCH(H$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I377" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B377,Price!$A$6:$A$104,0),MATCH(I$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J377" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B377,Price!$A$6:$A$104,0),MATCH(J$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K377" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B377,Price!$A$6:$A$104,0),MATCH(K$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L377" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B377,Price!$A$6:$A$104,0),MATCH(L$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="M377" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B377,Price!$A$6:$A$104,0),MATCH(M$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="N377" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B377,Price!$A$6:$A$104,0),MATCH(N$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O377" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B377,Price!$A$6:$A$104,0),MATCH(O$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Q377" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B377,Price!$A$6:$A$104,0),MATCH(Q$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R377" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B377,Price!$A$6:$A$104,0),MATCH(R$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="T377" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B377,Price!$A$6:$A$104,0),MATCH(T$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A378" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B378" s="16">
+        <f>IF(AND(Demand!$A21&lt;&gt;"Total",$B98&lt;&gt;""),Demand!$A21,"")</f>
+        <v>0</v>
+      </c>
+      <c r="C378" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D378" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B378,Price!$A$6:$A$104,0),MATCH(D$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E378" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B378,Price!$A$6:$A$104,0),MATCH(E$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F378" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B378,Price!$A$6:$A$104,0),MATCH(F$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G378" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B378,Price!$A$6:$A$104,0),MATCH(G$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H378" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B378,Price!$A$6:$A$104,0),MATCH(H$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I378" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B378,Price!$A$6:$A$104,0),MATCH(I$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J378" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B378,Price!$A$6:$A$104,0),MATCH(J$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K378" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B378,Price!$A$6:$A$104,0),MATCH(K$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L378" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B378,Price!$A$6:$A$104,0),MATCH(L$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="M378" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B378,Price!$A$6:$A$104,0),MATCH(M$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="N378" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B378,Price!$A$6:$A$104,0),MATCH(N$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O378" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B378,Price!$A$6:$A$104,0),MATCH(O$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Q378" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B378,Price!$A$6:$A$104,0),MATCH(Q$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R378" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B378,Price!$A$6:$A$104,0),MATCH(R$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="T378" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B378,Price!$A$6:$A$104,0),MATCH(T$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A379" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B379" s="16">
+        <f>IF(AND(Demand!$A22&lt;&gt;"Total",$B99&lt;&gt;""),Demand!$A22,"")</f>
+        <v>0</v>
+      </c>
+      <c r="C379" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D379" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B379,Price!$A$6:$A$104,0),MATCH(D$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E379" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B379,Price!$A$6:$A$104,0),MATCH(E$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F379" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B379,Price!$A$6:$A$104,0),MATCH(F$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G379" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B379,Price!$A$6:$A$104,0),MATCH(G$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H379" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B379,Price!$A$6:$A$104,0),MATCH(H$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I379" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B379,Price!$A$6:$A$104,0),MATCH(I$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J379" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B379,Price!$A$6:$A$104,0),MATCH(J$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K379" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B379,Price!$A$6:$A$104,0),MATCH(K$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L379" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B379,Price!$A$6:$A$104,0),MATCH(L$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="M379" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B379,Price!$A$6:$A$104,0),MATCH(M$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="N379" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B379,Price!$A$6:$A$104,0),MATCH(N$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O379" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B379,Price!$A$6:$A$104,0),MATCH(O$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Q379" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B379,Price!$A$6:$A$104,0),MATCH(Q$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R379" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B379,Price!$A$6:$A$104,0),MATCH(R$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="T379" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B379,Price!$A$6:$A$104,0),MATCH(T$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A380" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B380" s="16">
+        <f>IF(AND(Demand!$A23&lt;&gt;"Total",$B100&lt;&gt;""),Demand!$A23,"")</f>
+        <v>0</v>
+      </c>
+      <c r="C380" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D380" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B380,Price!$A$6:$A$104,0),MATCH(D$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E380" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B380,Price!$A$6:$A$104,0),MATCH(E$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F380" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B380,Price!$A$6:$A$104,0),MATCH(F$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G380" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B380,Price!$A$6:$A$104,0),MATCH(G$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H380" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B380,Price!$A$6:$A$104,0),MATCH(H$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I380" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B380,Price!$A$6:$A$104,0),MATCH(I$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J380" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B380,Price!$A$6:$A$104,0),MATCH(J$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K380" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B380,Price!$A$6:$A$104,0),MATCH(K$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L380" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B380,Price!$A$6:$A$104,0),MATCH(L$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="M380" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B380,Price!$A$6:$A$104,0),MATCH(M$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="N380" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B380,Price!$A$6:$A$104,0),MATCH(N$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O380" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B380,Price!$A$6:$A$104,0),MATCH(O$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Q380" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B380,Price!$A$6:$A$104,0),MATCH(Q$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R380" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B380,Price!$A$6:$A$104,0),MATCH(R$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="T380" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B380,Price!$A$6:$A$104,0),MATCH(T$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A381" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B381" s="16">
+        <f>IF(AND(Demand!$A24&lt;&gt;"Total",$B101&lt;&gt;""),Demand!$A24,"")</f>
+        <v>0</v>
+      </c>
+      <c r="C381" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D381" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B381,Price!$A$6:$A$104,0),MATCH(D$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E381" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B381,Price!$A$6:$A$104,0),MATCH(E$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F381" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B381,Price!$A$6:$A$104,0),MATCH(F$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G381" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B381,Price!$A$6:$A$104,0),MATCH(G$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H381" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B381,Price!$A$6:$A$104,0),MATCH(H$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I381" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B381,Price!$A$6:$A$104,0),MATCH(I$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J381" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B381,Price!$A$6:$A$104,0),MATCH(J$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K381" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B381,Price!$A$6:$A$104,0),MATCH(K$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L381" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B381,Price!$A$6:$A$104,0),MATCH(L$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="M381" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B381,Price!$A$6:$A$104,0),MATCH(M$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="N381" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B381,Price!$A$6:$A$104,0),MATCH(N$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O381" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B381,Price!$A$6:$A$104,0),MATCH(O$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Q381" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B381,Price!$A$6:$A$104,0),MATCH(Q$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R381" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B381,Price!$A$6:$A$104,0),MATCH(R$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="T381" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B381,Price!$A$6:$A$104,0),MATCH(T$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A382" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B382" s="16">
+        <f>IF(AND(Demand!$A25&lt;&gt;"Total",$B102&lt;&gt;""),Demand!$A25,"")</f>
+        <v>0</v>
+      </c>
+      <c r="C382" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D382" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B382,Price!$A$6:$A$104,0),MATCH(D$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E382" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B382,Price!$A$6:$A$104,0),MATCH(E$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F382" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B382,Price!$A$6:$A$104,0),MATCH(F$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G382" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B382,Price!$A$6:$A$104,0),MATCH(G$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H382" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B382,Price!$A$6:$A$104,0),MATCH(H$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I382" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B382,Price!$A$6:$A$104,0),MATCH(I$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J382" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B382,Price!$A$6:$A$104,0),MATCH(J$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K382" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B382,Price!$A$6:$A$104,0),MATCH(K$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L382" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B382,Price!$A$6:$A$104,0),MATCH(L$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="M382" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B382,Price!$A$6:$A$104,0),MATCH(M$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="N382" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B382,Price!$A$6:$A$104,0),MATCH(N$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O382" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B382,Price!$A$6:$A$104,0),MATCH(O$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Q382" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B382,Price!$A$6:$A$104,0),MATCH(Q$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R382" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B382,Price!$A$6:$A$104,0),MATCH(R$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="T382" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B382,Price!$A$6:$A$104,0),MATCH(T$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A383" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B383" s="16">
+        <f>IF(AND(Demand!$A26&lt;&gt;"Total",$B103&lt;&gt;""),Demand!$A26,"")</f>
+        <v>0</v>
+      </c>
+      <c r="C383" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D383" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B383,Price!$A$6:$A$104,0),MATCH(D$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E383" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B383,Price!$A$6:$A$104,0),MATCH(E$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F383" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B383,Price!$A$6:$A$104,0),MATCH(F$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G383" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B383,Price!$A$6:$A$104,0),MATCH(G$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H383" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B383,Price!$A$6:$A$104,0),MATCH(H$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I383" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B383,Price!$A$6:$A$104,0),MATCH(I$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J383" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B383,Price!$A$6:$A$104,0),MATCH(J$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K383" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B383,Price!$A$6:$A$104,0),MATCH(K$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L383" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B383,Price!$A$6:$A$104,0),MATCH(L$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="M383" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B383,Price!$A$6:$A$104,0),MATCH(M$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="N383" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B383,Price!$A$6:$A$104,0),MATCH(N$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O383" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B383,Price!$A$6:$A$104,0),MATCH(O$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Q383" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B383,Price!$A$6:$A$104,0),MATCH(Q$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R383" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B383,Price!$A$6:$A$104,0),MATCH(R$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="T383" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B383,Price!$A$6:$A$104,0),MATCH(T$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A384" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B384" s="16">
+        <f>IF(AND(Demand!$A27&lt;&gt;"Total",$B104&lt;&gt;""),Demand!$A27,"")</f>
+        <v>0</v>
+      </c>
+      <c r="C384" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D384" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B384,Price!$A$6:$A$104,0),MATCH(D$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E384" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B384,Price!$A$6:$A$104,0),MATCH(E$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F384" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B384,Price!$A$6:$A$104,0),MATCH(F$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G384" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B384,Price!$A$6:$A$104,0),MATCH(G$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H384" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B384,Price!$A$6:$A$104,0),MATCH(H$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I384" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B384,Price!$A$6:$A$104,0),MATCH(I$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J384" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B384,Price!$A$6:$A$104,0),MATCH(J$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K384" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B384,Price!$A$6:$A$104,0),MATCH(K$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L384" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B384,Price!$A$6:$A$104,0),MATCH(L$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="M384" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B384,Price!$A$6:$A$104,0),MATCH(M$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="N384" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B384,Price!$A$6:$A$104,0),MATCH(N$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O384" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B384,Price!$A$6:$A$104,0),MATCH(O$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Q384" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B384,Price!$A$6:$A$104,0),MATCH(Q$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R384" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B384,Price!$A$6:$A$104,0),MATCH(R$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="T384" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B384,Price!$A$6:$A$104,0),MATCH(T$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A385" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B385" s="16">
+        <f>IF(AND(Demand!$A28&lt;&gt;"Total",$B105&lt;&gt;""),Demand!$A28,"")</f>
+        <v>0</v>
+      </c>
+      <c r="C385" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D385" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B385,Price!$A$6:$A$104,0),MATCH(D$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E385" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B385,Price!$A$6:$A$104,0),MATCH(E$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F385" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B385,Price!$A$6:$A$104,0),MATCH(F$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G385" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B385,Price!$A$6:$A$104,0),MATCH(G$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H385" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B385,Price!$A$6:$A$104,0),MATCH(H$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I385" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B385,Price!$A$6:$A$104,0),MATCH(I$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J385" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B385,Price!$A$6:$A$104,0),MATCH(J$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K385" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B385,Price!$A$6:$A$104,0),MATCH(K$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L385" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B385,Price!$A$6:$A$104,0),MATCH(L$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="M385" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B385,Price!$A$6:$A$104,0),MATCH(M$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="N385" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B385,Price!$A$6:$A$104,0),MATCH(N$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O385" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B385,Price!$A$6:$A$104,0),MATCH(O$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Q385" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B385,Price!$A$6:$A$104,0),MATCH(Q$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R385" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B385,Price!$A$6:$A$104,0),MATCH(R$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="T385" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B385,Price!$A$6:$A$104,0),MATCH(T$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A386" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B386" s="16">
+        <f>IF(AND(Demand!$A29&lt;&gt;"Total",$B106&lt;&gt;""),Demand!$A29,"")</f>
+        <v>0</v>
+      </c>
+      <c r="C386" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D386" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B386,Price!$A$6:$A$104,0),MATCH(D$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E386" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B386,Price!$A$6:$A$104,0),MATCH(E$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F386" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B386,Price!$A$6:$A$104,0),MATCH(F$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G386" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B386,Price!$A$6:$A$104,0),MATCH(G$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H386" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B386,Price!$A$6:$A$104,0),MATCH(H$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I386" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B386,Price!$A$6:$A$104,0),MATCH(I$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J386" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B386,Price!$A$6:$A$104,0),MATCH(J$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K386" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B386,Price!$A$6:$A$104,0),MATCH(K$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L386" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B386,Price!$A$6:$A$104,0),MATCH(L$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="M386" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B386,Price!$A$6:$A$104,0),MATCH(M$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="N386" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B386,Price!$A$6:$A$104,0),MATCH(N$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O386" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B386,Price!$A$6:$A$104,0),MATCH(O$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Q386" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B386,Price!$A$6:$A$104,0),MATCH(Q$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R386" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B386,Price!$A$6:$A$104,0),MATCH(R$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="T386" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B386,Price!$A$6:$A$104,0),MATCH(T$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A387" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B387" s="16">
+        <f>IF(AND(Demand!$A30&lt;&gt;"Total",$B107&lt;&gt;""),Demand!$A30,"")</f>
+        <v>0</v>
+      </c>
+      <c r="C387" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D387" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B387,Price!$A$6:$A$104,0),MATCH(D$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E387" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B387,Price!$A$6:$A$104,0),MATCH(E$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F387" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B387,Price!$A$6:$A$104,0),MATCH(F$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G387" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B387,Price!$A$6:$A$104,0),MATCH(G$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H387" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B387,Price!$A$6:$A$104,0),MATCH(H$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I387" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B387,Price!$A$6:$A$104,0),MATCH(I$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J387" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B387,Price!$A$6:$A$104,0),MATCH(J$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K387" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B387,Price!$A$6:$A$104,0),MATCH(K$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L387" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B387,Price!$A$6:$A$104,0),MATCH(L$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="M387" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B387,Price!$A$6:$A$104,0),MATCH(M$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="N387" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B387,Price!$A$6:$A$104,0),MATCH(N$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O387" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B387,Price!$A$6:$A$104,0),MATCH(O$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Q387" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B387,Price!$A$6:$A$104,0),MATCH(Q$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R387" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B387,Price!$A$6:$A$104,0),MATCH(R$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="T387" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B387,Price!$A$6:$A$104,0),MATCH(T$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A388" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B388" s="16">
+        <f>IF(AND(Demand!$A31&lt;&gt;"Total",$B108&lt;&gt;""),Demand!$A31,"")</f>
+        <v>0</v>
+      </c>
+      <c r="C388" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D388" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B388,Price!$A$6:$A$104,0),MATCH(D$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E388" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B388,Price!$A$6:$A$104,0),MATCH(E$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F388" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B388,Price!$A$6:$A$104,0),MATCH(F$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G388" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B388,Price!$A$6:$A$104,0),MATCH(G$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H388" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B388,Price!$A$6:$A$104,0),MATCH(H$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I388" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B388,Price!$A$6:$A$104,0),MATCH(I$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J388" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B388,Price!$A$6:$A$104,0),MATCH(J$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K388" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B388,Price!$A$6:$A$104,0),MATCH(K$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L388" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B388,Price!$A$6:$A$104,0),MATCH(L$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="M388" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B388,Price!$A$6:$A$104,0),MATCH(M$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="N388" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B388,Price!$A$6:$A$104,0),MATCH(N$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O388" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B388,Price!$A$6:$A$104,0),MATCH(O$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Q388" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B388,Price!$A$6:$A$104,0),MATCH(Q$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R388" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B388,Price!$A$6:$A$104,0),MATCH(R$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="T388" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B388,Price!$A$6:$A$104,0),MATCH(T$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A389" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B389" s="16">
+        <f>IF(AND(Demand!$A32&lt;&gt;"Total",$B109&lt;&gt;""),Demand!$A32,"")</f>
+        <v>0</v>
+      </c>
+      <c r="C389" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D389" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B389,Price!$A$6:$A$104,0),MATCH(D$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E389" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B389,Price!$A$6:$A$104,0),MATCH(E$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F389" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B389,Price!$A$6:$A$104,0),MATCH(F$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G389" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B389,Price!$A$6:$A$104,0),MATCH(G$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H389" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B389,Price!$A$6:$A$104,0),MATCH(H$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I389" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B389,Price!$A$6:$A$104,0),MATCH(I$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J389" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B389,Price!$A$6:$A$104,0),MATCH(J$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K389" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B389,Price!$A$6:$A$104,0),MATCH(K$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L389" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B389,Price!$A$6:$A$104,0),MATCH(L$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="M389" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B389,Price!$A$6:$A$104,0),MATCH(M$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="N389" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B389,Price!$A$6:$A$104,0),MATCH(N$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O389" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B389,Price!$A$6:$A$104,0),MATCH(O$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Q389" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B389,Price!$A$6:$A$104,0),MATCH(Q$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R389" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B389,Price!$A$6:$A$104,0),MATCH(R$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="T389" s="22" t="b">
+        <f>IFERROR(INDEX(Price!$B$6:$U$104,MATCH($B389,Price!$A$6:$A$104,0),MATCH(T$1,Price!$B$5:$U$5,0)),FALSE)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
